--- a/DRE/cap08-BasesDeDatos/TablasMaestras/IPT_ACRM_TB_VAL_PAISES_ISO_Regiones_150429.xlsx
+++ b/DRE/cap08-BasesDeDatos/TablasMaestras/IPT_ACRM_TB_VAL_PAISES_ISO_Regiones_150429.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="ISO" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="iso_3166_2_countries" localSheetId="0">ISO!$B$2:$J$254</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="1475">
   <si>
     <t>Capital</t>
   </si>
@@ -4475,6 +4475,9 @@
   </si>
   <si>
     <t>Central Asia</t>
+  </si>
+  <si>
+    <t>Country Name</t>
   </si>
 </sst>
 </file>
@@ -4895,8 +4898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4912,12 +4915,12 @@
     <row r="1" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="8" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>1468</v>
+        <v>1474</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="2" t="s">
         <v>1453</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -12923,8 +12926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
